--- a/data/output/FV2504_FV2410/ORDRSP/19011.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19011.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="195">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="195">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -707,6 +707,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U71" totalsRowShown="0">
+  <autoFilter ref="A1:U71"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -996,7 +1026,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4316,5 +4349,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDRSP/19011.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19011.xlsx
@@ -907,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -932,6 +932,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1374,7 +1377,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1738,7 +1741,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1884,7 +1887,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2088,7 +2091,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2282,7 +2285,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2482,7 +2485,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2682,7 +2685,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2988,7 +2991,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3300,7 +3303,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3500,7 +3503,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -3874,7 +3877,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4185,19 +4188,19 @@
       <c r="M57" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="N57" s="9" t="s">
+      <c r="N57" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
-      <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="9" t="s">
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="V57" s="9" t="s">
+      <c r="V57" s="10" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4218,26 +4221,26 @@
       <c r="L58" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M58" s="9" t="s">
+      <c r="M58" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="N58" s="9" t="s">
+      <c r="N58" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O58" s="9" t="s">
+      <c r="O58" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9" t="s">
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="9" t="s">
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="V58" s="9"/>
+      <c r="V58" s="10"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4256,30 +4259,30 @@
       <c r="L59" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M59" s="9" t="s">
+      <c r="M59" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="N59" s="9" t="s">
+      <c r="N59" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O59" s="9" t="s">
+      <c r="O59" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="P59" s="9" t="s">
+      <c r="P59" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="Q59" s="9" t="s">
+      <c r="Q59" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="T59" s="9" t="s">
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="U59" s="9" t="s">
+      <c r="U59" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="V59" s="9" t="s">
+      <c r="V59" s="10" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4303,23 +4306,23 @@
       <c r="M60" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="N60" s="9" t="s">
+      <c r="N60" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O60" s="9" t="s">
+      <c r="O60" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="9" t="s">
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="9" t="s">
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="V60" s="9" t="s">
+      <c r="V60" s="10" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4340,32 +4343,32 @@
       <c r="L61" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M61" s="9" t="s">
+      <c r="M61" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="N61" s="9" t="s">
+      <c r="N61" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O61" s="9" t="s">
+      <c r="O61" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="P61" s="9" t="s">
+      <c r="P61" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Q61" s="9" t="s">
+      <c r="Q61" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="R61" s="9" t="s">
+      <c r="R61" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="S61" s="9"/>
-      <c r="T61" s="9" t="s">
+      <c r="S61" s="10"/>
+      <c r="T61" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="U61" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="V61" s="9"/>
+      <c r="U61" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="V61" s="10"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4384,30 +4387,30 @@
       <c r="L62" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M62" s="9" t="s">
+      <c r="M62" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="N62" s="9" t="s">
+      <c r="N62" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="P62" s="9" t="s">
+      <c r="P62" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="Q62" s="9" t="s">
+      <c r="Q62" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9" t="s">
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="U62" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="V62" s="9"/>
+      <c r="U62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="V62" s="10"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4429,23 +4432,23 @@
       <c r="M63" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="N63" s="9" t="s">
+      <c r="N63" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O63" s="9" t="s">
+      <c r="O63" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9" t="s">
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9" t="s">
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="V63" s="9" t="s">
+      <c r="V63" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4466,32 +4469,32 @@
       <c r="L64" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M64" s="9" t="s">
+      <c r="M64" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="N64" s="9" t="s">
+      <c r="N64" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O64" s="9" t="s">
+      <c r="O64" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="P64" s="9" t="s">
+      <c r="P64" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Q64" s="9" t="s">
+      <c r="Q64" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="R64" s="9" t="s">
+      <c r="R64" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9" t="s">
+      <c r="S64" s="10"/>
+      <c r="T64" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="U64" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="V64" s="9"/>
+      <c r="U64" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="V64" s="10"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4510,30 +4513,30 @@
       <c r="L65" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M65" s="9" t="s">
+      <c r="M65" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="N65" s="9" t="s">
+      <c r="N65" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O65" s="9" t="s">
+      <c r="O65" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="P65" s="9" t="s">
+      <c r="P65" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="Q65" s="9" t="s">
+      <c r="Q65" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9" t="s">
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="U65" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="V65" s="9"/>
+      <c r="U65" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="V65" s="10"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4552,74 +4555,74 @@
       <c r="L66" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="M66" s="9" t="s">
+      <c r="M66" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="N66" s="9" t="s">
+      <c r="N66" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="O66" s="9" t="s">
+      <c r="O66" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="P66" s="9" t="s">
+      <c r="P66" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="Q66" s="9" t="s">
+      <c r="Q66" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9" t="s">
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U66" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="V66" s="9"/>
+      <c r="U66" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="V66" s="10"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="K67" s="2"/>
       <c r="L67" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5" t="s">
+      <c r="N67" s="2"/>
+      <c r="O67" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P67" s="5"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="V67" s="5"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -4678,48 +4681,48 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="2"/>
       <c r="L69" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5" t="s">
+      <c r="N69" s="2"/>
+      <c r="O69" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P69" s="5"/>
+      <c r="P69" s="2"/>
       <c r="Q69" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="V69" s="5"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
